--- a/Dados Baixados/Local Do Nascimento Por Região Com Região De Saúde(CIR)/LocaisDeNascimento.xlsx
+++ b/Dados Baixados/Local Do Nascimento Por Região Com Região De Saúde(CIR)/LocaisDeNascimento.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819D44E-4E57-4590-BE52-C613AF40441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E0F01-5BEA-4099-9AC7-AA7E62E2002F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AE8D0C10-68F7-4E36-B333-63320E0F2955}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{AE8D0C10-68F7-4E36-B333-63320E0F2955}"/>
   </bookViews>
   <sheets>
     <sheet name="Hospital" sheetId="1" r:id="rId1"/>
     <sheet name="Domicílio" sheetId="2" r:id="rId2"/>
     <sheet name="Outro Estabelecimento de Saúde" sheetId="3" r:id="rId3"/>
+    <sheet name="Total dos anos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t>43001 Região 01 - Verdes Campos</t>
   </si>
@@ -131,6 +132,15 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Domicílio</t>
+  </si>
+  <si>
+    <t>Outro Estabelecimento de Saúde</t>
   </si>
 </sst>
 </file>
@@ -557,7 +567,7 @@
   <dimension ref="A2:AF13"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AF13"/>
+      <selection activeCell="AF3" sqref="AF3:AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1776,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98661178-CEE9-4384-A7AB-DE284B1DBFDD}">
   <dimension ref="A2:AF21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF2"/>
+    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2997,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DFCCAD-82B1-43EC-9841-D0794A1D8555}">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4210,4 +4220,189 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999B69-FC7D-4660-BE6A-68B9A0D5EE0D}">
+  <dimension ref="A2:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="2">
+        <v>140908</v>
+      </c>
+      <c r="C3" s="2">
+        <v>274</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="2">
+        <v>142906</v>
+      </c>
+      <c r="C4" s="2">
+        <v>263</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="2">
+        <v>147890</v>
+      </c>
+      <c r="C5" s="2">
+        <v>296</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="2">
+        <v>140865</v>
+      </c>
+      <c r="C6" s="2">
+        <v>333</v>
+      </c>
+      <c r="D6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="2">
+        <v>141005</v>
+      </c>
+      <c r="C7" s="2">
+        <v>337</v>
+      </c>
+      <c r="D7" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="2">
+        <v>139445</v>
+      </c>
+      <c r="C8" s="2">
+        <v>366</v>
+      </c>
+      <c r="D8" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="2">
+        <v>134039</v>
+      </c>
+      <c r="C9" s="2">
+        <v>327</v>
+      </c>
+      <c r="D9" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="2">
+        <v>130078</v>
+      </c>
+      <c r="C10" s="2">
+        <v>388</v>
+      </c>
+      <c r="D10" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="2">
+        <v>123785</v>
+      </c>
+      <c r="C11" s="2">
+        <v>407</v>
+      </c>
+      <c r="D11" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="2">
+        <v>120357</v>
+      </c>
+      <c r="C12" s="2">
+        <v>362</v>
+      </c>
+      <c r="D12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="2">
+        <v>120400</v>
+      </c>
+      <c r="C13" s="2">
+        <v>365</v>
+      </c>
+      <c r="D13" s="2">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>